--- a/public/Order List 10.04.xlsx
+++ b/public/Order List 10.04.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aromabotanical\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aromabotanical\Documents\Shopify Test\next-shipping\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60366C9-07C1-4DE0-9F1D-5485EDBBE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036790C7-5DDA-4ADD-B002-FD012E94BE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="990" windowWidth="20640" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="1725" windowWidth="21450" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Cust PO Number</t>
   </si>
@@ -417,7 +417,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -481,6 +483,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
       <c r="D3">
         <v>36</v>
       </c>
@@ -522,6 +527,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
       <c r="D5">
         <v>32</v>
       </c>
@@ -537,6 +545,9 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
       <c r="D6">
         <v>36</v>
       </c>
@@ -578,6 +589,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
       <c r="D8">
         <v>32</v>
       </c>
@@ -593,6 +607,9 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
       <c r="D9">
         <v>36</v>
       </c>
@@ -660,6 +677,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
       <c r="D12">
         <v>32</v>
       </c>
@@ -701,6 +721,9 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
       <c r="D14">
         <v>32</v>
       </c>
@@ -716,6 +739,9 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
       <c r="D15">
         <v>36</v>
       </c>
@@ -731,6 +757,9 @@
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
       <c r="D16">
         <v>45</v>
       </c>
@@ -772,6 +801,9 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
       <c r="D18">
         <v>32</v>
       </c>
@@ -787,6 +819,9 @@
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
       <c r="D19">
         <v>36</v>
       </c>
